--- a/testdata/Settings.xlsx
+++ b/testdata/Settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Row Number</t>
   </si>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="S16" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36:T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,9 +1506,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="3"/>
     </row>
@@ -1555,9 +1553,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
